--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/5 Rakhila bari khal/CS of Rakhila bari khal.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/5 Rakhila bari khal/CS of Rakhila bari khal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="845" activeTab="4"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Long section Rakhila bari khal'!$A$1:$AB$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Rakhila bari khal (Data)'!$A$1:$T$322</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1072,6 +1072,24 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1122,24 +1140,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1150,12 +1150,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1181,6 +1175,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1769,11 +1769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206003584"/>
-        <c:axId val="206006144"/>
+        <c:axId val="261959040"/>
+        <c:axId val="261977984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206003584"/>
+        <c:axId val="261959040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206006144"/>
+        <c:crossAx val="261977984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1866,7 +1866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206006144"/>
+        <c:axId val="261977984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206003584"/>
+        <c:crossAx val="261959040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2306,11 +2306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207882112"/>
-        <c:axId val="207883648"/>
+        <c:axId val="263497984"/>
+        <c:axId val="263512064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207882112"/>
+        <c:axId val="263497984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2356,12 +2356,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207883648"/>
+        <c:crossAx val="263512064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207883648"/>
+        <c:axId val="263512064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207882112"/>
+        <c:crossAx val="263497984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2720,11 +2720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207937920"/>
-        <c:axId val="207939456"/>
+        <c:axId val="263537408"/>
+        <c:axId val="263538944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207937920"/>
+        <c:axId val="263537408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2770,12 +2770,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207939456"/>
+        <c:crossAx val="263538944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207939456"/>
+        <c:axId val="263538944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207937920"/>
+        <c:crossAx val="263537408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3134,11 +3134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207956608"/>
-        <c:axId val="207966592"/>
+        <c:axId val="263576576"/>
+        <c:axId val="264049408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207956608"/>
+        <c:axId val="263576576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3184,12 +3184,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207966592"/>
+        <c:crossAx val="264049408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207966592"/>
+        <c:axId val="264049408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +3234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207956608"/>
+        <c:crossAx val="263576576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3536,11 +3536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208008320"/>
-        <c:axId val="208009856"/>
+        <c:axId val="264074752"/>
+        <c:axId val="264076288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208008320"/>
+        <c:axId val="264074752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3586,12 +3586,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208009856"/>
+        <c:crossAx val="264076288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208009856"/>
+        <c:axId val="264076288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,7 +3636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208008320"/>
+        <c:crossAx val="264074752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3956,11 +3956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208039296"/>
-        <c:axId val="208045184"/>
+        <c:axId val="264101888"/>
+        <c:axId val="264103424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208039296"/>
+        <c:axId val="264101888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4006,12 +4006,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208045184"/>
+        <c:crossAx val="264103424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208045184"/>
+        <c:axId val="264103424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,7 +4056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208039296"/>
+        <c:crossAx val="264101888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4406,11 +4406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208066432"/>
-        <c:axId val="208067968"/>
+        <c:axId val="264149248"/>
+        <c:axId val="264159232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208066432"/>
+        <c:axId val="264149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4456,12 +4456,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208067968"/>
+        <c:crossAx val="264159232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208067968"/>
+        <c:axId val="264159232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4506,7 +4506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208066432"/>
+        <c:crossAx val="264149248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4808,11 +4808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207704448"/>
-        <c:axId val="207705984"/>
+        <c:axId val="264250496"/>
+        <c:axId val="264252032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207704448"/>
+        <c:axId val="264250496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4858,12 +4858,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207705984"/>
+        <c:crossAx val="264252032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207705984"/>
+        <c:axId val="264252032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4908,7 +4908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207704448"/>
+        <c:crossAx val="264250496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5210,11 +5210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207755904"/>
-        <c:axId val="207757696"/>
+        <c:axId val="264285568"/>
+        <c:axId val="264287360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207755904"/>
+        <c:axId val="264285568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5260,12 +5260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207757696"/>
+        <c:crossAx val="264287360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207757696"/>
+        <c:axId val="264287360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5310,7 +5310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207755904"/>
+        <c:crossAx val="264285568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5618,11 +5618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207787136"/>
-        <c:axId val="207788672"/>
+        <c:axId val="264320896"/>
+        <c:axId val="264322432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207787136"/>
+        <c:axId val="264320896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5668,12 +5668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207788672"/>
+        <c:crossAx val="264322432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207788672"/>
+        <c:axId val="264322432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,7 +5718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207787136"/>
+        <c:crossAx val="264320896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6104,11 +6104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208349440"/>
-        <c:axId val="208355328"/>
+        <c:axId val="264346624"/>
+        <c:axId val="264360704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208349440"/>
+        <c:axId val="264346624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6154,12 +6154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208355328"/>
+        <c:crossAx val="264360704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208355328"/>
+        <c:axId val="264360704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6204,7 +6204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208349440"/>
+        <c:crossAx val="264346624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6522,11 +6522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206365824"/>
-        <c:axId val="206367360"/>
+        <c:axId val="261895296"/>
+        <c:axId val="261896832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206365824"/>
+        <c:axId val="261895296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6572,12 +6572,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206367360"/>
+        <c:crossAx val="261896832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206367360"/>
+        <c:axId val="261896832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6622,7 +6622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206365824"/>
+        <c:crossAx val="261895296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6948,11 +6948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208389632"/>
-        <c:axId val="208391168"/>
+        <c:axId val="264452352"/>
+        <c:axId val="264454144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208389632"/>
+        <c:axId val="264452352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6998,12 +6998,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208391168"/>
+        <c:crossAx val="264454144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208391168"/>
+        <c:axId val="264454144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7048,7 +7048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208389632"/>
+        <c:crossAx val="264452352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7350,11 +7350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208494976"/>
-        <c:axId val="208496512"/>
+        <c:axId val="264492160"/>
+        <c:axId val="264493696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208494976"/>
+        <c:axId val="264492160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7400,12 +7400,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208496512"/>
+        <c:crossAx val="264493696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208496512"/>
+        <c:axId val="264493696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7450,7 +7450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208494976"/>
+        <c:crossAx val="264492160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7752,11 +7752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208533376"/>
-        <c:axId val="208534912"/>
+        <c:axId val="264522368"/>
+        <c:axId val="264532352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208533376"/>
+        <c:axId val="264522368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7802,12 +7802,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208534912"/>
+        <c:crossAx val="264532352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208534912"/>
+        <c:axId val="264532352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7852,7 +7852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208533376"/>
+        <c:crossAx val="264522368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8190,11 +8190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208438400"/>
-        <c:axId val="208439936"/>
+        <c:axId val="264562560"/>
+        <c:axId val="264564096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208438400"/>
+        <c:axId val="264562560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8240,12 +8240,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208439936"/>
+        <c:crossAx val="264564096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208439936"/>
+        <c:axId val="264564096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8290,7 +8290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208438400"/>
+        <c:crossAx val="264562560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8542,11 +8542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208143488"/>
-        <c:axId val="208145024"/>
+        <c:axId val="263210496"/>
+        <c:axId val="263212032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208143488"/>
+        <c:axId val="263210496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8592,12 +8592,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208145024"/>
+        <c:crossAx val="263212032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208145024"/>
+        <c:axId val="263212032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8642,7 +8642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208143488"/>
+        <c:crossAx val="263210496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8894,11 +8894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208174464"/>
-        <c:axId val="208176256"/>
+        <c:axId val="263237632"/>
+        <c:axId val="263239168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208174464"/>
+        <c:axId val="263237632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8944,12 +8944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208176256"/>
+        <c:crossAx val="263239168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208176256"/>
+        <c:axId val="263239168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8994,7 +8994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208174464"/>
+        <c:crossAx val="263237632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9234,11 +9234,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208206464"/>
-        <c:axId val="209326464"/>
+        <c:axId val="263265280"/>
+        <c:axId val="264622848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208206464"/>
+        <c:axId val="263265280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9284,12 +9284,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209326464"/>
+        <c:crossAx val="264622848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209326464"/>
+        <c:axId val="264622848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9334,7 +9334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208206464"/>
+        <c:crossAx val="263265280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9574,11 +9574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209359232"/>
-        <c:axId val="209360768"/>
+        <c:axId val="265057024"/>
+        <c:axId val="265058560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209359232"/>
+        <c:axId val="265057024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9624,12 +9624,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209360768"/>
+        <c:crossAx val="265058560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209360768"/>
+        <c:axId val="265058560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9674,7 +9674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209359232"/>
+        <c:crossAx val="265057024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9932,11 +9932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209386112"/>
-        <c:axId val="209465728"/>
+        <c:axId val="265088000"/>
+        <c:axId val="265097984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209386112"/>
+        <c:axId val="265088000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9982,12 +9982,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209465728"/>
+        <c:crossAx val="265097984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209465728"/>
+        <c:axId val="265097984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10032,7 +10032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209386112"/>
+        <c:crossAx val="265088000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10278,11 +10278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209503360"/>
-        <c:axId val="209504896"/>
+        <c:axId val="265123328"/>
+        <c:axId val="265124864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209503360"/>
+        <c:axId val="265123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10328,12 +10328,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209504896"/>
+        <c:crossAx val="265124864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209504896"/>
+        <c:axId val="265124864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10378,7 +10378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209503360"/>
+        <c:crossAx val="265123328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10678,11 +10678,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205864320"/>
-        <c:axId val="205907072"/>
+        <c:axId val="261938560"/>
+        <c:axId val="262734976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205864320"/>
+        <c:axId val="261938560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10728,12 +10728,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205907072"/>
+        <c:crossAx val="262734976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205907072"/>
+        <c:axId val="262734976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10778,7 +10778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205864320"/>
+        <c:crossAx val="261938560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11018,11 +11018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209603968"/>
-        <c:axId val="209609856"/>
+        <c:axId val="265551872"/>
+        <c:axId val="265553408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209603968"/>
+        <c:axId val="265551872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11068,12 +11068,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209609856"/>
+        <c:crossAx val="265553408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209609856"/>
+        <c:axId val="265553408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11118,7 +11118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209603968"/>
+        <c:crossAx val="265551872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11358,11 +11358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209643392"/>
-        <c:axId val="209644928"/>
+        <c:axId val="265586944"/>
+        <c:axId val="265588736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209643392"/>
+        <c:axId val="265586944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11408,12 +11408,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209644928"/>
+        <c:crossAx val="265588736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209644928"/>
+        <c:axId val="265588736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11458,7 +11458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209643392"/>
+        <c:crossAx val="265586944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11698,11 +11698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209555840"/>
-        <c:axId val="209557376"/>
+        <c:axId val="265700096"/>
+        <c:axId val="265701632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209555840"/>
+        <c:axId val="265700096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11748,12 +11748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209557376"/>
+        <c:crossAx val="265701632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209557376"/>
+        <c:axId val="265701632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11798,7 +11798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209555840"/>
+        <c:crossAx val="265700096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12038,11 +12038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209664640"/>
-        <c:axId val="209666432"/>
+        <c:axId val="265714688"/>
+        <c:axId val="265732864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209664640"/>
+        <c:axId val="265714688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12088,12 +12088,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209666432"/>
+        <c:crossAx val="265732864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209666432"/>
+        <c:axId val="265732864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12138,7 +12138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209664640"/>
+        <c:crossAx val="265714688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12390,11 +12390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209699968"/>
-        <c:axId val="209701504"/>
+        <c:axId val="265381376"/>
+        <c:axId val="265382912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209699968"/>
+        <c:axId val="265381376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12440,12 +12440,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209701504"/>
+        <c:crossAx val="265382912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209701504"/>
+        <c:axId val="265382912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12490,7 +12490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209699968"/>
+        <c:crossAx val="265381376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12730,11 +12730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209132928"/>
-        <c:axId val="209147008"/>
+        <c:axId val="265408512"/>
+        <c:axId val="265410048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209132928"/>
+        <c:axId val="265408512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12780,12 +12780,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209147008"/>
+        <c:crossAx val="265410048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209147008"/>
+        <c:axId val="265410048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12830,7 +12830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209132928"/>
+        <c:crossAx val="265408512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13070,11 +13070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209176448"/>
-        <c:axId val="209177984"/>
+        <c:axId val="265435392"/>
+        <c:axId val="265453568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209176448"/>
+        <c:axId val="265435392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -13120,12 +13120,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209177984"/>
+        <c:crossAx val="265453568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209177984"/>
+        <c:axId val="265453568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13170,7 +13170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209176448"/>
+        <c:crossAx val="265435392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13416,11 +13416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209281408"/>
-        <c:axId val="209282944"/>
+        <c:axId val="265474816"/>
+        <c:axId val="265476352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209281408"/>
+        <c:axId val="265474816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -13466,12 +13466,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209282944"/>
+        <c:crossAx val="265476352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209282944"/>
+        <c:axId val="265476352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13516,7 +13516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209281408"/>
+        <c:crossAx val="265474816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13786,11 +13786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209296384"/>
-        <c:axId val="209310464"/>
+        <c:axId val="266034560"/>
+        <c:axId val="266048640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209296384"/>
+        <c:axId val="266034560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -13836,12 +13836,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209310464"/>
+        <c:crossAx val="266048640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209310464"/>
+        <c:axId val="266048640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13886,7 +13886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209296384"/>
+        <c:crossAx val="266034560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14126,11 +14126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210122240"/>
-        <c:axId val="210123776"/>
+        <c:axId val="266086272"/>
+        <c:axId val="266087808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210122240"/>
+        <c:axId val="266086272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -14176,12 +14176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210123776"/>
+        <c:crossAx val="266087808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210123776"/>
+        <c:axId val="266087808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14226,7 +14226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210122240"/>
+        <c:crossAx val="266086272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14526,11 +14526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206313344"/>
-        <c:axId val="206314880"/>
+        <c:axId val="262764416"/>
+        <c:axId val="262765952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206313344"/>
+        <c:axId val="262764416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -14576,12 +14576,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206314880"/>
+        <c:crossAx val="262765952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206314880"/>
+        <c:axId val="262765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14626,7 +14626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206313344"/>
+        <c:crossAx val="262764416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14866,11 +14866,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210046976"/>
-        <c:axId val="210048512"/>
+        <c:axId val="266113408"/>
+        <c:axId val="266114944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210046976"/>
+        <c:axId val="266113408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -14916,12 +14916,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210048512"/>
+        <c:crossAx val="266114944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210048512"/>
+        <c:axId val="266114944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14966,7 +14966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210046976"/>
+        <c:crossAx val="266113408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15206,11 +15206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210069760"/>
-        <c:axId val="210087936"/>
+        <c:axId val="266152576"/>
+        <c:axId val="266162560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210069760"/>
+        <c:axId val="266152576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -15256,12 +15256,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210087936"/>
+        <c:crossAx val="266162560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210087936"/>
+        <c:axId val="266162560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15306,7 +15306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210069760"/>
+        <c:crossAx val="266152576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15558,11 +15558,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210105088"/>
-        <c:axId val="210106624"/>
+        <c:axId val="266179712"/>
+        <c:axId val="266181248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210105088"/>
+        <c:axId val="266179712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -15608,12 +15608,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210106624"/>
+        <c:crossAx val="266181248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210106624"/>
+        <c:axId val="266181248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15658,7 +15658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210105088"/>
+        <c:crossAx val="266179712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16014,11 +16014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206584064"/>
-        <c:axId val="206598144"/>
+        <c:axId val="262469888"/>
+        <c:axId val="262537216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206584064"/>
+        <c:axId val="262469888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -16064,12 +16064,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206598144"/>
+        <c:crossAx val="262537216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206598144"/>
+        <c:axId val="262537216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16114,7 +16114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206584064"/>
+        <c:crossAx val="262469888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16464,11 +16464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206621312"/>
-        <c:axId val="206373248"/>
+        <c:axId val="262583040"/>
+        <c:axId val="262584576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206621312"/>
+        <c:axId val="262583040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -16514,12 +16514,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206373248"/>
+        <c:crossAx val="262584576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206373248"/>
+        <c:axId val="262584576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16564,7 +16564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206621312"/>
+        <c:crossAx val="262583040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16890,11 +16890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206398208"/>
-        <c:axId val="206399744"/>
+        <c:axId val="262601728"/>
+        <c:axId val="262624000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206398208"/>
+        <c:axId val="262601728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -16940,12 +16940,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206399744"/>
+        <c:crossAx val="262624000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206399744"/>
+        <c:axId val="262624000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16990,7 +16990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206398208"/>
+        <c:crossAx val="262601728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17310,11 +17310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206433280"/>
-        <c:axId val="207356672"/>
+        <c:axId val="262657536"/>
+        <c:axId val="262659072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206433280"/>
+        <c:axId val="262657536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -17360,12 +17360,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207356672"/>
+        <c:crossAx val="262659072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207356672"/>
+        <c:axId val="262659072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17410,7 +17410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206433280"/>
+        <c:crossAx val="262657536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17766,11 +17766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207371648"/>
-        <c:axId val="207389824"/>
+        <c:axId val="263475200"/>
+        <c:axId val="263476736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207371648"/>
+        <c:axId val="263475200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -17816,12 +17816,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207389824"/>
+        <c:crossAx val="263476736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207389824"/>
+        <c:axId val="263476736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17866,7 +17866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207371648"/>
+        <c:crossAx val="263475200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17940,7 +17940,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17983,7 +17983,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18021,7 +18021,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18059,7 +18059,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18102,7 +18102,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18140,7 +18140,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18178,7 +18178,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18216,7 +18216,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18254,7 +18254,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18292,7 +18292,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18330,7 +18330,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18368,7 +18368,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18406,7 +18406,7 @@
         <xdr:cNvPr id="43" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18444,7 +18444,7 @@
         <xdr:cNvPr id="44" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18482,7 +18482,7 @@
         <xdr:cNvPr id="45" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18520,7 +18520,7 @@
         <xdr:cNvPr id="46" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18558,7 +18558,7 @@
         <xdr:cNvPr id="47" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18596,7 +18596,7 @@
         <xdr:cNvPr id="48" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18634,7 +18634,7 @@
         <xdr:cNvPr id="49" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18672,7 +18672,7 @@
         <xdr:cNvPr id="50" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18710,7 +18710,7 @@
         <xdr:cNvPr id="51" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18748,7 +18748,7 @@
         <xdr:cNvPr id="52" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18786,7 +18786,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18829,7 +18829,7 @@
         <xdr:cNvPr id="5" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18962,7 +18962,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19114,7 +19114,7 @@
         <xdr:cNvPr id="7" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19270,7 +19270,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19308,7 +19308,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19346,7 +19346,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19384,7 +19384,7 @@
         <xdr:cNvPr id="5" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19422,7 +19422,7 @@
         <xdr:cNvPr id="6" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19460,7 +19460,7 @@
         <xdr:cNvPr id="7" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19498,7 +19498,7 @@
         <xdr:cNvPr id="8" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19536,7 +19536,7 @@
         <xdr:cNvPr id="9" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19574,7 +19574,7 @@
         <xdr:cNvPr id="10" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19612,7 +19612,7 @@
         <xdr:cNvPr id="11" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19650,7 +19650,7 @@
         <xdr:cNvPr id="12" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19688,7 +19688,7 @@
         <xdr:cNvPr id="13" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19726,7 +19726,7 @@
         <xdr:cNvPr id="14" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19764,7 +19764,7 @@
         <xdr:cNvPr id="15" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19802,7 +19802,7 @@
         <xdr:cNvPr id="16" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19840,7 +19840,7 @@
         <xdr:cNvPr id="17" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19878,7 +19878,7 @@
         <xdr:cNvPr id="18" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19916,7 +19916,7 @@
         <xdr:cNvPr id="19" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19954,7 +19954,7 @@
         <xdr:cNvPr id="20" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20612,15 +20612,15 @@
       <c r="A1" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
       <c r="K1" s="95"/>
@@ -20977,21 +20977,21 @@
     </row>
     <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="110"/>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
       <c r="AB7" s="113"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -21100,77 +21100,77 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="110"/>
-      <c r="R34" s="138" t="s">
+      <c r="R34" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="S34" s="139"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="139"/>
-      <c r="V34" s="139"/>
-      <c r="W34" s="139"/>
-      <c r="X34" s="139"/>
-      <c r="Y34" s="139"/>
-      <c r="Z34" s="139"/>
-      <c r="AA34" s="139"/>
-      <c r="AB34" s="140"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="146"/>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="110"/>
-      <c r="R35" s="141" t="s">
+      <c r="R35" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="S35" s="142"/>
-      <c r="T35" s="142"/>
-      <c r="U35" s="142"/>
-      <c r="V35" s="142"/>
-      <c r="W35" s="142"/>
-      <c r="X35" s="142"/>
-      <c r="Y35" s="142"/>
-      <c r="Z35" s="142"/>
-      <c r="AA35" s="142"/>
-      <c r="AB35" s="143"/>
+      <c r="S35" s="148"/>
+      <c r="T35" s="148"/>
+      <c r="U35" s="148"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="148"/>
+      <c r="Y35" s="148"/>
+      <c r="Z35" s="148"/>
+      <c r="AA35" s="148"/>
+      <c r="AB35" s="149"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="110"/>
-      <c r="R36" s="144"/>
-      <c r="S36" s="145"/>
-      <c r="T36" s="145"/>
-      <c r="U36" s="145"/>
-      <c r="V36" s="145"/>
-      <c r="W36" s="145"/>
-      <c r="X36" s="145"/>
-      <c r="Y36" s="145"/>
-      <c r="Z36" s="145"/>
-      <c r="AA36" s="145"/>
-      <c r="AB36" s="146"/>
+      <c r="R36" s="150"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="151"/>
+      <c r="U36" s="151"/>
+      <c r="V36" s="151"/>
+      <c r="W36" s="151"/>
+      <c r="X36" s="151"/>
+      <c r="Y36" s="151"/>
+      <c r="Z36" s="151"/>
+      <c r="AA36" s="151"/>
+      <c r="AB36" s="152"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="110"/>
-      <c r="R37" s="144"/>
-      <c r="S37" s="145"/>
-      <c r="T37" s="145"/>
-      <c r="U37" s="145"/>
-      <c r="V37" s="145"/>
-      <c r="W37" s="145"/>
-      <c r="X37" s="145"/>
-      <c r="Y37" s="145"/>
-      <c r="Z37" s="145"/>
-      <c r="AA37" s="145"/>
-      <c r="AB37" s="146"/>
+      <c r="R37" s="150"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="151"/>
+      <c r="AB37" s="152"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="110"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="148"/>
-      <c r="T38" s="148"/>
-      <c r="U38" s="148"/>
-      <c r="V38" s="148"/>
-      <c r="W38" s="148"/>
-      <c r="X38" s="148"/>
-      <c r="Y38" s="148"/>
-      <c r="Z38" s="148"/>
-      <c r="AA38" s="148"/>
-      <c r="AB38" s="149"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="154"/>
+      <c r="T38" s="154"/>
+      <c r="U38" s="154"/>
+      <c r="V38" s="154"/>
+      <c r="W38" s="154"/>
+      <c r="X38" s="154"/>
+      <c r="Y38" s="154"/>
+      <c r="Z38" s="154"/>
+      <c r="AA38" s="154"/>
+      <c r="AB38" s="155"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="110"/>
@@ -21230,84 +21230,84 @@
     </row>
     <row r="43" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="110"/>
-      <c r="R43" s="150" t="s">
+      <c r="R43" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="S43" s="151"/>
-      <c r="T43" s="151"/>
-      <c r="U43" s="152"/>
-      <c r="V43" s="150" t="s">
+      <c r="S43" s="157"/>
+      <c r="T43" s="157"/>
+      <c r="U43" s="158"/>
+      <c r="V43" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="W43" s="151"/>
-      <c r="X43" s="151"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="150" t="s">
+      <c r="W43" s="157"/>
+      <c r="X43" s="157"/>
+      <c r="Y43" s="158"/>
+      <c r="Z43" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="AA43" s="151"/>
-      <c r="AB43" s="152"/>
+      <c r="AA43" s="157"/>
+      <c r="AB43" s="158"/>
     </row>
     <row r="44" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="110"/>
-      <c r="R44" s="153" t="s">
+      <c r="R44" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="S44" s="154"/>
-      <c r="T44" s="154"/>
-      <c r="U44" s="155"/>
-      <c r="V44" s="153" t="s">
+      <c r="S44" s="136"/>
+      <c r="T44" s="136"/>
+      <c r="U44" s="137"/>
+      <c r="V44" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="W44" s="154"/>
-      <c r="X44" s="154"/>
-      <c r="Y44" s="155"/>
-      <c r="Z44" s="153" t="s">
+      <c r="W44" s="136"/>
+      <c r="X44" s="136"/>
+      <c r="Y44" s="137"/>
+      <c r="Z44" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="AA44" s="154"/>
-      <c r="AB44" s="155"/>
+      <c r="AA44" s="136"/>
+      <c r="AB44" s="137"/>
     </row>
     <row r="45" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="110"/>
-      <c r="R45" s="153" t="s">
+      <c r="R45" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="S45" s="154"/>
-      <c r="T45" s="154"/>
-      <c r="U45" s="155"/>
-      <c r="V45" s="153" t="s">
+      <c r="S45" s="136"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="W45" s="154"/>
-      <c r="X45" s="154"/>
-      <c r="Y45" s="155"/>
-      <c r="Z45" s="153" t="s">
+      <c r="W45" s="136"/>
+      <c r="X45" s="136"/>
+      <c r="Y45" s="137"/>
+      <c r="Z45" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="AA45" s="154"/>
-      <c r="AB45" s="155"/>
+      <c r="AA45" s="136"/>
+      <c r="AB45" s="137"/>
       <c r="AC45" s="129"/>
     </row>
     <row r="46" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="110"/>
-      <c r="R46" s="153" t="s">
+      <c r="R46" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="S46" s="154"/>
-      <c r="T46" s="154"/>
-      <c r="U46" s="155"/>
-      <c r="V46" s="153" t="s">
+      <c r="S46" s="136"/>
+      <c r="T46" s="136"/>
+      <c r="U46" s="137"/>
+      <c r="V46" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="W46" s="154"/>
-      <c r="X46" s="154"/>
-      <c r="Y46" s="155"/>
-      <c r="Z46" s="153" t="s">
+      <c r="W46" s="136"/>
+      <c r="X46" s="136"/>
+      <c r="Y46" s="137"/>
+      <c r="Z46" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="AA46" s="154"/>
-      <c r="AB46" s="155"/>
+      <c r="AA46" s="136"/>
+      <c r="AB46" s="137"/>
       <c r="AC46" s="129"/>
     </row>
     <row r="47" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21328,23 +21328,23 @@
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="131"/>
-      <c r="R47" s="156" t="s">
+      <c r="R47" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="S47" s="157"/>
-      <c r="T47" s="157"/>
-      <c r="U47" s="158"/>
-      <c r="V47" s="156" t="s">
+      <c r="S47" s="139"/>
+      <c r="T47" s="139"/>
+      <c r="U47" s="140"/>
+      <c r="V47" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="157"/>
-      <c r="X47" s="157"/>
-      <c r="Y47" s="158"/>
-      <c r="Z47" s="156" t="s">
+      <c r="W47" s="139"/>
+      <c r="X47" s="139"/>
+      <c r="Y47" s="140"/>
+      <c r="Z47" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="AA47" s="157"/>
-      <c r="AB47" s="158"/>
+      <c r="AA47" s="139"/>
+      <c r="AB47" s="140"/>
       <c r="AC47" s="132"/>
     </row>
     <row r="53" spans="18:28" x14ac:dyDescent="0.2">
@@ -21388,18 +21388,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F7:R7"/>
     <mergeCell ref="R34:AB34"/>
@@ -21407,6 +21395,18 @@
     <mergeCell ref="R43:U43"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -24605,7 +24605,7 @@
   </sheetPr>
   <dimension ref="A1:V859"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B496" sqref="B496:E496"/>
     </sheetView>
   </sheetViews>
@@ -25007,21 +25007,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -25814,11 +25814,11 @@
       <c r="K22" s="19"/>
       <c r="L22" s="16"/>
       <c r="M22" s="19"/>
-      <c r="O22" s="165" t="s">
+      <c r="O22" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="167"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="165"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="17"/>
@@ -25880,11 +25880,11 @@
       <c r="L25" s="16"/>
       <c r="M25" s="19"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="168" t="s">
+      <c r="O25" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="169"/>
-      <c r="Q25" s="170"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="168"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
@@ -26046,10 +26046,10 @@
       <c r="E33" s="13"/>
       <c r="F33" s="16"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="164" t="s">
+      <c r="H33" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="164"/>
+      <c r="I33" s="171"/>
       <c r="J33" s="19">
         <f>G27</f>
         <v>-1.5195000000000007</v>
@@ -27006,10 +27006,10 @@
       <c r="E64" s="13"/>
       <c r="F64" s="16"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="164" t="s">
+      <c r="H64" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="164"/>
+      <c r="I64" s="171"/>
       <c r="J64" s="19">
         <f>G58</f>
         <v>5.4650000000000007</v>
@@ -27833,10 +27833,10 @@
       <c r="E90" s="13"/>
       <c r="F90" s="16"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="164" t="s">
+      <c r="H90" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="164"/>
+      <c r="I90" s="171"/>
       <c r="J90" s="19">
         <f>G89</f>
         <v>4.5260000000000016</v>
@@ -28665,10 +28665,10 @@
       <c r="E117" s="13"/>
       <c r="F117" s="16"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="164" t="s">
+      <c r="H117" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I117" s="164"/>
+      <c r="I117" s="171"/>
       <c r="J117" s="19">
         <f>G116</f>
         <v>9.6110000000000007</v>
@@ -29587,10 +29587,10 @@
       <c r="E144" s="13"/>
       <c r="F144" s="16"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="164" t="s">
+      <c r="H144" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I144" s="164"/>
+      <c r="I144" s="171"/>
       <c r="J144" s="19">
         <f>G143</f>
         <v>6.2519999999999998</v>
@@ -30415,10 +30415,10 @@
       <c r="E170" s="13"/>
       <c r="F170" s="16"/>
       <c r="G170" s="19"/>
-      <c r="H170" s="164" t="s">
+      <c r="H170" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I170" s="164"/>
+      <c r="I170" s="171"/>
       <c r="J170" s="19">
         <f>G169</f>
         <v>11.523499999999999</v>
@@ -31228,10 +31228,10 @@
       <c r="E196" s="13"/>
       <c r="F196" s="16"/>
       <c r="G196" s="19"/>
-      <c r="H196" s="164" t="s">
+      <c r="H196" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I196" s="164"/>
+      <c r="I196" s="171"/>
       <c r="J196" s="19">
         <f>G195</f>
         <v>9.0850000000000009</v>
@@ -32030,10 +32030,10 @@
       <c r="E222" s="13"/>
       <c r="F222" s="16"/>
       <c r="G222" s="19"/>
-      <c r="H222" s="164" t="s">
+      <c r="H222" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I222" s="164"/>
+      <c r="I222" s="171"/>
       <c r="J222" s="19">
         <f>G221</f>
         <v>9.9459999999999997</v>
@@ -32060,8 +32060,8 @@
       <c r="E223" s="19"/>
       <c r="F223" s="16"/>
       <c r="G223" s="19"/>
-      <c r="H223" s="164"/>
-      <c r="I223" s="164"/>
+      <c r="H223" s="171"/>
+      <c r="I223" s="171"/>
       <c r="J223" s="19"/>
       <c r="K223" s="19"/>
       <c r="L223" s="16"/>
@@ -32838,10 +32838,10 @@
       <c r="E250" s="13"/>
       <c r="F250" s="16"/>
       <c r="G250" s="19"/>
-      <c r="H250" s="164" t="s">
+      <c r="H250" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I250" s="164"/>
+      <c r="I250" s="171"/>
       <c r="J250" s="19">
         <f>G249</f>
         <v>8.593</v>
@@ -33654,10 +33654,10 @@
       <c r="E276" s="13"/>
       <c r="F276" s="16"/>
       <c r="G276" s="19"/>
-      <c r="H276" s="164" t="s">
+      <c r="H276" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I276" s="164"/>
+      <c r="I276" s="171"/>
       <c r="J276" s="19">
         <f>G275</f>
         <v>8.0324999999999989</v>
@@ -34553,10 +34553,10 @@
       <c r="E303" s="13"/>
       <c r="F303" s="16"/>
       <c r="G303" s="19"/>
-      <c r="H303" s="164" t="s">
+      <c r="H303" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I303" s="164"/>
+      <c r="I303" s="171"/>
       <c r="J303" s="16">
         <f>G302</f>
         <v>-21.703000000000003</v>
@@ -35350,10 +35350,10 @@
       <c r="E330" s="13"/>
       <c r="F330" s="16"/>
       <c r="G330" s="19"/>
-      <c r="H330" s="164" t="s">
+      <c r="H330" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I330" s="164"/>
+      <c r="I330" s="171"/>
       <c r="J330" s="16">
         <f>G329</f>
         <v>8.557500000000001</v>
@@ -36145,10 +36145,10 @@
       <c r="E357" s="13"/>
       <c r="F357" s="16"/>
       <c r="G357" s="19"/>
-      <c r="H357" s="164" t="s">
+      <c r="H357" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I357" s="164"/>
+      <c r="I357" s="171"/>
       <c r="J357" s="16">
         <f>G356</f>
         <v>8.9764999999999997</v>
@@ -36934,10 +36934,10 @@
       <c r="E383" s="13"/>
       <c r="F383" s="16"/>
       <c r="G383" s="19"/>
-      <c r="H383" s="164" t="s">
+      <c r="H383" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I383" s="164"/>
+      <c r="I383" s="171"/>
       <c r="J383" s="16">
         <f>G382</f>
         <v>33.552500000000002</v>
@@ -37993,10 +37993,10 @@
       <c r="E415" s="13"/>
       <c r="F415" s="16"/>
       <c r="G415" s="19"/>
-      <c r="H415" s="164" t="s">
+      <c r="H415" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I415" s="164"/>
+      <c r="I415" s="171"/>
       <c r="J415" s="16">
         <f>G414</f>
         <v>33.422999999999995</v>
@@ -43905,18 +43905,18 @@
     </row>
     <row r="677" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A677" s="55"/>
-      <c r="B677" s="172"/>
-      <c r="C677" s="172"/>
-      <c r="D677" s="172"/>
-      <c r="E677" s="172"/>
-      <c r="F677" s="172"/>
-      <c r="G677" s="172"/>
+      <c r="B677" s="170"/>
+      <c r="C677" s="170"/>
+      <c r="D677" s="170"/>
+      <c r="E677" s="170"/>
+      <c r="F677" s="170"/>
+      <c r="G677" s="170"/>
       <c r="H677" s="55"/>
-      <c r="I677" s="172"/>
-      <c r="J677" s="172"/>
-      <c r="K677" s="172"/>
-      <c r="L677" s="172"/>
-      <c r="M677" s="172"/>
+      <c r="I677" s="170"/>
+      <c r="J677" s="170"/>
+      <c r="K677" s="170"/>
+      <c r="L677" s="170"/>
+      <c r="M677" s="170"/>
       <c r="N677" s="15"/>
       <c r="O677" s="15"/>
       <c r="P677" s="20"/>
@@ -44479,8 +44479,8 @@
       <c r="E706" s="63"/>
       <c r="F706" s="60"/>
       <c r="G706" s="60"/>
-      <c r="H706" s="171"/>
-      <c r="I706" s="171"/>
+      <c r="H706" s="169"/>
+      <c r="I706" s="169"/>
       <c r="J706" s="63"/>
       <c r="K706" s="63"/>
       <c r="L706" s="63"/>
@@ -44492,18 +44492,18 @@
     </row>
     <row r="707" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A707" s="55"/>
-      <c r="B707" s="172"/>
-      <c r="C707" s="172"/>
-      <c r="D707" s="172"/>
-      <c r="E707" s="172"/>
-      <c r="F707" s="172"/>
-      <c r="G707" s="172"/>
+      <c r="B707" s="170"/>
+      <c r="C707" s="170"/>
+      <c r="D707" s="170"/>
+      <c r="E707" s="170"/>
+      <c r="F707" s="170"/>
+      <c r="G707" s="170"/>
       <c r="H707" s="55"/>
-      <c r="I707" s="172"/>
-      <c r="J707" s="172"/>
-      <c r="K707" s="172"/>
-      <c r="L707" s="172"/>
-      <c r="M707" s="172"/>
+      <c r="I707" s="170"/>
+      <c r="J707" s="170"/>
+      <c r="K707" s="170"/>
+      <c r="L707" s="170"/>
+      <c r="M707" s="170"/>
       <c r="N707" s="69"/>
       <c r="O707" s="69"/>
       <c r="P707" s="70"/>
@@ -45068,8 +45068,8 @@
       <c r="E736" s="63"/>
       <c r="F736" s="60"/>
       <c r="G736" s="60"/>
-      <c r="H736" s="171"/>
-      <c r="I736" s="171"/>
+      <c r="H736" s="169"/>
+      <c r="I736" s="169"/>
       <c r="J736" s="63"/>
       <c r="K736" s="63"/>
       <c r="L736" s="63"/>
@@ -45081,18 +45081,18 @@
     </row>
     <row r="737" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A737" s="55"/>
-      <c r="B737" s="172"/>
-      <c r="C737" s="172"/>
-      <c r="D737" s="172"/>
-      <c r="E737" s="172"/>
-      <c r="F737" s="172"/>
-      <c r="G737" s="172"/>
+      <c r="B737" s="170"/>
+      <c r="C737" s="170"/>
+      <c r="D737" s="170"/>
+      <c r="E737" s="170"/>
+      <c r="F737" s="170"/>
+      <c r="G737" s="170"/>
       <c r="H737" s="55"/>
-      <c r="I737" s="172"/>
-      <c r="J737" s="172"/>
-      <c r="K737" s="172"/>
-      <c r="L737" s="172"/>
-      <c r="M737" s="172"/>
+      <c r="I737" s="170"/>
+      <c r="J737" s="170"/>
+      <c r="K737" s="170"/>
+      <c r="L737" s="170"/>
+      <c r="M737" s="170"/>
       <c r="N737" s="69"/>
       <c r="O737" s="69"/>
       <c r="P737" s="70"/>
@@ -45658,8 +45658,8 @@
       <c r="E766" s="63"/>
       <c r="F766" s="60"/>
       <c r="G766" s="60"/>
-      <c r="H766" s="171"/>
-      <c r="I766" s="171"/>
+      <c r="H766" s="169"/>
+      <c r="I766" s="169"/>
       <c r="J766" s="63"/>
       <c r="K766" s="63"/>
       <c r="L766" s="63"/>
@@ -45671,18 +45671,18 @@
     </row>
     <row r="767" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A767" s="55"/>
-      <c r="B767" s="172"/>
-      <c r="C767" s="172"/>
-      <c r="D767" s="172"/>
-      <c r="E767" s="172"/>
-      <c r="F767" s="172"/>
-      <c r="G767" s="172"/>
+      <c r="B767" s="170"/>
+      <c r="C767" s="170"/>
+      <c r="D767" s="170"/>
+      <c r="E767" s="170"/>
+      <c r="F767" s="170"/>
+      <c r="G767" s="170"/>
       <c r="H767" s="55"/>
-      <c r="I767" s="172"/>
-      <c r="J767" s="172"/>
-      <c r="K767" s="172"/>
-      <c r="L767" s="172"/>
-      <c r="M767" s="172"/>
+      <c r="I767" s="170"/>
+      <c r="J767" s="170"/>
+      <c r="K767" s="170"/>
+      <c r="L767" s="170"/>
+      <c r="M767" s="170"/>
       <c r="N767" s="69"/>
       <c r="O767" s="69"/>
       <c r="P767" s="70"/>
@@ -46267,8 +46267,8 @@
       <c r="E797" s="63"/>
       <c r="F797" s="60"/>
       <c r="G797" s="60"/>
-      <c r="H797" s="171"/>
-      <c r="I797" s="171"/>
+      <c r="H797" s="169"/>
+      <c r="I797" s="169"/>
       <c r="J797" s="63"/>
       <c r="K797" s="63"/>
       <c r="L797" s="63"/>
@@ -46280,18 +46280,18 @@
     </row>
     <row r="798" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A798" s="55"/>
-      <c r="B798" s="172"/>
-      <c r="C798" s="172"/>
-      <c r="D798" s="172"/>
-      <c r="E798" s="172"/>
-      <c r="F798" s="172"/>
-      <c r="G798" s="172"/>
+      <c r="B798" s="170"/>
+      <c r="C798" s="170"/>
+      <c r="D798" s="170"/>
+      <c r="E798" s="170"/>
+      <c r="F798" s="170"/>
+      <c r="G798" s="170"/>
       <c r="H798" s="55"/>
-      <c r="I798" s="172"/>
-      <c r="J798" s="172"/>
-      <c r="K798" s="172"/>
-      <c r="L798" s="172"/>
-      <c r="M798" s="172"/>
+      <c r="I798" s="170"/>
+      <c r="J798" s="170"/>
+      <c r="K798" s="170"/>
+      <c r="L798" s="170"/>
+      <c r="M798" s="170"/>
       <c r="N798" s="69"/>
       <c r="O798" s="69"/>
       <c r="P798" s="70"/>
@@ -46876,8 +46876,8 @@
       <c r="E828" s="63"/>
       <c r="F828" s="60"/>
       <c r="G828" s="60"/>
-      <c r="H828" s="171"/>
-      <c r="I828" s="171"/>
+      <c r="H828" s="169"/>
+      <c r="I828" s="169"/>
       <c r="J828" s="63"/>
       <c r="K828" s="63"/>
       <c r="L828" s="63"/>
@@ -46889,18 +46889,18 @@
     </row>
     <row r="829" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A829" s="55"/>
-      <c r="B829" s="172"/>
-      <c r="C829" s="172"/>
-      <c r="D829" s="172"/>
-      <c r="E829" s="172"/>
-      <c r="F829" s="172"/>
-      <c r="G829" s="172"/>
+      <c r="B829" s="170"/>
+      <c r="C829" s="170"/>
+      <c r="D829" s="170"/>
+      <c r="E829" s="170"/>
+      <c r="F829" s="170"/>
+      <c r="G829" s="170"/>
       <c r="H829" s="55"/>
-      <c r="I829" s="172"/>
-      <c r="J829" s="172"/>
-      <c r="K829" s="172"/>
-      <c r="L829" s="172"/>
-      <c r="M829" s="172"/>
+      <c r="I829" s="170"/>
+      <c r="J829" s="170"/>
+      <c r="K829" s="170"/>
+      <c r="L829" s="170"/>
+      <c r="M829" s="170"/>
       <c r="N829" s="69"/>
       <c r="O829" s="69"/>
       <c r="P829" s="70"/>
@@ -47496,6 +47496,91 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B333:G333"/>
+    <mergeCell ref="I333:M333"/>
+    <mergeCell ref="H383:I383"/>
+    <mergeCell ref="D385:E385"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="I120:M120"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="I146:M146"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="B252:G252"/>
+    <mergeCell ref="I252:M252"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="I172:M172"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="I226:M226"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="B306:G306"/>
+    <mergeCell ref="I306:M306"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="D332:E332"/>
+    <mergeCell ref="B279:G279"/>
+    <mergeCell ref="I279:M279"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="I93:M93"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="I198:M198"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="B386:G386"/>
+    <mergeCell ref="I386:M386"/>
+    <mergeCell ref="H415:I415"/>
+    <mergeCell ref="D416:E416"/>
+    <mergeCell ref="B417:G417"/>
+    <mergeCell ref="I417:M417"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="B359:G359"/>
+    <mergeCell ref="I359:M359"/>
+    <mergeCell ref="B475:G475"/>
+    <mergeCell ref="I475:M475"/>
+    <mergeCell ref="D496:E496"/>
+    <mergeCell ref="B497:G497"/>
+    <mergeCell ref="I497:M497"/>
+    <mergeCell ref="D445:E445"/>
+    <mergeCell ref="B446:G446"/>
+    <mergeCell ref="I446:M446"/>
+    <mergeCell ref="D474:E474"/>
+    <mergeCell ref="B587:G587"/>
+    <mergeCell ref="I587:M587"/>
+    <mergeCell ref="H616:I616"/>
+    <mergeCell ref="B617:G617"/>
+    <mergeCell ref="I617:M617"/>
+    <mergeCell ref="H526:I526"/>
+    <mergeCell ref="B527:G527"/>
+    <mergeCell ref="I527:M527"/>
+    <mergeCell ref="H556:I556"/>
+    <mergeCell ref="B557:G557"/>
+    <mergeCell ref="I557:M557"/>
     <mergeCell ref="O22:Q22"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="H828:I828"/>
@@ -47520,91 +47605,6 @@
     <mergeCell ref="B677:G677"/>
     <mergeCell ref="I677:M677"/>
     <mergeCell ref="H586:I586"/>
-    <mergeCell ref="B587:G587"/>
-    <mergeCell ref="I587:M587"/>
-    <mergeCell ref="H616:I616"/>
-    <mergeCell ref="B617:G617"/>
-    <mergeCell ref="I617:M617"/>
-    <mergeCell ref="H526:I526"/>
-    <mergeCell ref="B527:G527"/>
-    <mergeCell ref="I527:M527"/>
-    <mergeCell ref="H556:I556"/>
-    <mergeCell ref="B557:G557"/>
-    <mergeCell ref="I557:M557"/>
-    <mergeCell ref="B475:G475"/>
-    <mergeCell ref="I475:M475"/>
-    <mergeCell ref="D496:E496"/>
-    <mergeCell ref="B497:G497"/>
-    <mergeCell ref="I497:M497"/>
-    <mergeCell ref="D445:E445"/>
-    <mergeCell ref="B446:G446"/>
-    <mergeCell ref="I446:M446"/>
-    <mergeCell ref="D474:E474"/>
-    <mergeCell ref="B386:G386"/>
-    <mergeCell ref="I386:M386"/>
-    <mergeCell ref="H415:I415"/>
-    <mergeCell ref="D416:E416"/>
-    <mergeCell ref="B417:G417"/>
-    <mergeCell ref="I417:M417"/>
-    <mergeCell ref="H357:I357"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="B359:G359"/>
-    <mergeCell ref="I359:M359"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="B306:G306"/>
-    <mergeCell ref="I306:M306"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="D332:E332"/>
-    <mergeCell ref="B279:G279"/>
-    <mergeCell ref="I279:M279"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="I93:M93"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="I198:M198"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="B333:G333"/>
-    <mergeCell ref="I333:M333"/>
-    <mergeCell ref="H383:I383"/>
-    <mergeCell ref="D385:E385"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="I120:M120"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="I146:M146"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="B252:G252"/>
-    <mergeCell ref="I252:M252"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="I172:M172"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="I226:M226"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="I66:M66"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="D92:E92"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
@@ -48847,10 +48847,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V322"/>
+  <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A292" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49253,28 +49253,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
     </row>
@@ -49995,10 +49995,10 @@
       <c r="E20" s="79"/>
       <c r="F20" s="80"/>
       <c r="G20" s="78"/>
-      <c r="H20" s="164" t="s">
+      <c r="H20" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="164"/>
+      <c r="I20" s="171"/>
       <c r="J20" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -50714,10 +50714,10 @@
       <c r="E38" s="79"/>
       <c r="F38" s="80"/>
       <c r="G38" s="78"/>
-      <c r="H38" s="164" t="s">
+      <c r="H38" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="164"/>
+      <c r="I38" s="171"/>
       <c r="J38" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -53392,10 +53392,10 @@
       <c r="E112" s="79"/>
       <c r="F112" s="80"/>
       <c r="G112" s="78"/>
-      <c r="H112" s="164" t="s">
+      <c r="H112" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="I112" s="164"/>
+      <c r="I112" s="171"/>
       <c r="J112" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -61135,8 +61135,560 @@
       <c r="P322" s="20"/>
       <c r="R322" s="21"/>
     </row>
+    <row r="337" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="860" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="861" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="B307:G307"/>
+    <mergeCell ref="I307:M307"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="B275:G275"/>
+    <mergeCell ref="I275:M275"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="B291:G291"/>
+    <mergeCell ref="I291:M291"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="I259:M259"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="I177:M177"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="I145:M145"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="I161:M161"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="I129:M129"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="I64:M64"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:G4"/>
@@ -61147,43 +61699,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="I22:M22"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="I129:M129"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="I145:M145"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="I161:M161"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="I177:M177"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="I259:M259"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="B307:G307"/>
-    <mergeCell ref="I307:M307"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="B275:G275"/>
-    <mergeCell ref="I275:M275"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="B291:G291"/>
-    <mergeCell ref="I291:M291"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
